--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2175492.299599003</v>
+        <v>2144299.418117943</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1141553.612261407</v>
+        <v>1141553.612261408</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802535</v>
+        <v>6165603.330802534</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7532503.388646703</v>
+        <v>7532503.388646704</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>250.0265873213353</v>
       </c>
       <c r="D2" t="n">
-        <v>325.224086848979</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.30553556433132</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -758,7 +758,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>30.84765070733263</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>5.059988556704353</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.2020293759812</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>146.736446532065</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>32.03720025161316</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>55.52545966912092</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.52184105483003</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>128.9874563185103</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>32.91203919641605</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>411.9429466803539</v>
@@ -1153,7 +1153,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>47.67162917219133</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1229,7 +1229,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1268,10 +1268,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>153.1955845671975</v>
+        <v>147.6456057141688</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11.57315202520402</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>217.5573536903069</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
@@ -1387,7 +1387,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>226.5155980402247</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>232.4133134826782</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>120.5336706961899</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>34.05723091947836</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>149.5312803259759</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>30.85644994240176</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.44569772400793</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>179.0329422106659</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>333.1715999739536</v>
       </c>
       <c r="D17" t="n">
-        <v>136.1145711915225</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.4433659829895</v>
@@ -1903,13 +1903,13 @@
         <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>89.55703495479318</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>274.8785839646978</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>204.3173474218061</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2180,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.37025385516839</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>232.478094525619</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>96.83505261228528</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -2335,7 +2335,7 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
-        <v>248.9800004856703</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>159.2066729054946</v>
@@ -2374,16 +2374,16 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I24" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786525</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.06466113568249</v>
+        <v>21.0646611356825</v>
       </c>
       <c r="S24" t="n">
         <v>139.8667397074436</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.27534694114254</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>71.29330766576324</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
@@ -2566,16 +2566,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H26" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I26" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>109.8854418384759</v>
       </c>
       <c r="W26" t="n">
-        <v>173.483670376369</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -2654,7 +2654,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I27" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786525</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.06466113568249</v>
+        <v>21.0646611356825</v>
       </c>
       <c r="S27" t="n">
         <v>139.8667397074436</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.290259532294</v>
+        <v>28.3925958025597</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4106508168785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>313.267217087812</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S29" t="n">
-        <v>157.5690361632288</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.26433482158937</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.151727850145</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H31" t="n">
         <v>153.2022726584912</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H32" t="n">
-        <v>30.99237953226039</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S32" t="n">
         <v>159.2066729054946</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>169.2268795929223</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>97.01549693257951</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>113.4106508168785</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>332.6646390666717</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I35" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U35" t="n">
-        <v>248.218297358677</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>113.4106508168785</v>
+        <v>66.40047918507477</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>202.601877043025</v>
       </c>
       <c r="T37" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>306.0581539462876</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>317.7406176577446</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>188.4723484101485</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>163.7769803192847</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.8071500050948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>315.1722678949608</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2815635600368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>317.7406176577446</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.64651753167263</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S41" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3839,7 +3839,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I42" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786525</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.06466113568249</v>
+        <v>21.0646611356825</v>
       </c>
       <c r="S42" t="n">
         <v>139.8667397074436</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I43" t="n">
-        <v>43.2581767429834</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>34.49533921685218</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>410.7953871538391</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>159.2066729054946</v>
+        <v>149.2850987798723</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -4045,7 +4045,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>149.9728621373681</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>109.2135620780598</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T46" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>198.1541424123346</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2101.212805059961</v>
+        <v>316.750733661422</v>
       </c>
       <c r="C2" t="n">
-        <v>2101.212805059961</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D2" t="n">
-        <v>1772.703626424629</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E2" t="n">
-        <v>1377.917906530736</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F2" t="n">
-        <v>963.766715840906</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G2" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V2" t="n">
-        <v>2101.212805059961</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="W2" t="n">
-        <v>2101.212805059961</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="X2" t="n">
-        <v>2101.212805059961</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="Y2" t="n">
-        <v>2101.212805059961</v>
+        <v>710.7942731794411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>544.2230485911302</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>544.2230485911302</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>405.3844115813423</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>405.3844115813423</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L3" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W3" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1569.153559814029</v>
+        <v>568.9724017949051</v>
       </c>
       <c r="C4" t="n">
-        <v>1569.153559814029</v>
+        <v>399.3564322565853</v>
       </c>
       <c r="D4" t="n">
-        <v>1569.153559814029</v>
+        <v>246.284539084348</v>
       </c>
       <c r="E4" t="n">
-        <v>1569.153559814029</v>
+        <v>246.284539084348</v>
       </c>
       <c r="F4" t="n">
-        <v>1569.153559814029</v>
+        <v>246.284539084348</v>
       </c>
       <c r="G4" t="n">
-        <v>1569.153559814029</v>
+        <v>246.284539084348</v>
       </c>
       <c r="H4" t="n">
-        <v>1569.153559814029</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
-        <v>1569.153559814029</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K4" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L4" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M4" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N4" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O4" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>1887.503042463649</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>1887.503042463649</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>1600.312802952749</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y4" t="n">
-        <v>1569.153559814029</v>
+        <v>568.9724017949051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.1323839232255</v>
+        <v>1728.635225930301</v>
       </c>
       <c r="C5" t="n">
-        <v>64.19862525603281</v>
+        <v>1346.701467263108</v>
       </c>
       <c r="D5" t="n">
-        <v>64.19862525603281</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="E5" t="n">
-        <v>64.19862525603281</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="F5" t="n">
-        <v>54.08783860660719</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4594,25 +4594,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.983829690315</v>
+        <v>1952.99417219929</v>
       </c>
       <c r="T5" t="n">
-        <v>1689.624883421327</v>
+        <v>1728.635225930301</v>
       </c>
       <c r="U5" t="n">
-        <v>1434.739547135321</v>
+        <v>1728.635225930301</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.760273031262</v>
+        <v>1728.635225930301</v>
       </c>
       <c r="W5" t="n">
-        <v>735.225342888863</v>
+        <v>1728.635225930301</v>
       </c>
       <c r="X5" t="n">
-        <v>735.225342888863</v>
+        <v>1728.635225930301</v>
       </c>
       <c r="Y5" t="n">
-        <v>735.225342888863</v>
+        <v>1728.635225930301</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680.3746967613888</v>
+        <v>690.275526911365</v>
       </c>
       <c r="C6" t="n">
-        <v>518.6710240023435</v>
+        <v>528.5718541523197</v>
       </c>
       <c r="D6" t="n">
-        <v>379.8323869925556</v>
+        <v>389.7332171425318</v>
       </c>
       <c r="E6" t="n">
-        <v>232.8043770494268</v>
+        <v>242.705207199403</v>
       </c>
       <c r="F6" t="n">
-        <v>98.11057899930117</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G6" t="n">
-        <v>98.11057899930117</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>189.1203796867518</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L6" t="n">
-        <v>554.9422248568675</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M6" t="n">
-        <v>1039.975578367094</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N6" t="n">
-        <v>1551.241224490216</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O6" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4679,19 +4679,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U6" t="n">
-        <v>1699.943945333632</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V6" t="n">
-        <v>1471.548322781966</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="W6" t="n">
-        <v>1230.232454015276</v>
+        <v>1240.133284165252</v>
       </c>
       <c r="X6" t="n">
-        <v>1032.315465893071</v>
+        <v>1042.216296043047</v>
       </c>
       <c r="Y6" t="n">
-        <v>839.7941395426498</v>
+        <v>849.6949696926259</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4749,28 +4749,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>386.0243786151989</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S7" t="n">
-        <v>172.3146160188864</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="U7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="V7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="W7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="X7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>302.3672068164996</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.039588413416</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="C8" t="n">
-        <v>1648.039588413416</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="D8" t="n">
-        <v>1648.039588413416</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.253868519523</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="F8" t="n">
-        <v>839.1026778296932</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>422.9986912838812</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>90.17741688119048</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119924</v>
@@ -4819,7 +4819,7 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>1778.623654917372</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
         <v>2006.780551373425</v>
@@ -4831,25 +4831,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186169</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W8" t="n">
-        <v>1648.039588413416</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X8" t="n">
-        <v>1648.039588413416</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="Y8" t="n">
-        <v>1648.039588413416</v>
+        <v>1007.121986527115</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>535.5325121970246</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="C9" t="n">
-        <v>373.8288394379794</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>373.8288394379794</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>373.8288394379794</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>239.1350413878537</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4883,25 +4883,25 @@
         <v>42.02425610119924</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059962</v>
@@ -4916,19 +4916,19 @@
         <v>1699.943945333633</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1699.943945333633</v>
       </c>
       <c r="V9" t="n">
-        <v>1326.706138217602</v>
+        <v>1550.806969864776</v>
       </c>
       <c r="W9" t="n">
-        <v>1085.390269450912</v>
+        <v>1309.491101098085</v>
       </c>
       <c r="X9" t="n">
-        <v>887.4732813287068</v>
+        <v>1111.57411297588</v>
       </c>
       <c r="Y9" t="n">
-        <v>694.9519549782856</v>
+        <v>919.052786625459</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119924</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>562.3934487964206</v>
+        <v>321.8363974045083</v>
       </c>
       <c r="T10" t="n">
-        <v>329.2144956120994</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="U10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119924</v>
+        <v>102.0814946870265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1591.52715050341</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C11" t="n">
-        <v>1209.593391836218</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D11" t="n">
-        <v>1209.593391836218</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.593391836218</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F11" t="n">
-        <v>795.442201146388</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H11" t="n">
         <v>50.85391747321462</v>
@@ -5041,19 +5041,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
@@ -5071,22 +5071,22 @@
         <v>2297.855323089771</v>
       </c>
       <c r="T11" t="n">
-        <v>2075.185256440287</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="U11" t="n">
-        <v>1820.330784887476</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="V11" t="n">
-        <v>1591.52715050341</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="W11" t="n">
-        <v>1591.52715050341</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="X11" t="n">
-        <v>1591.52715050341</v>
+        <v>2063.094400379995</v>
       </c>
       <c r="Y11" t="n">
-        <v>1591.52715050341</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>392.3832078845233</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L12" t="n">
-        <v>802.1338407649491</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M12" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.315261334734</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.85391747321462</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="C13" t="n">
-        <v>50.85391747321462</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="D13" t="n">
-        <v>50.85391747321462</v>
+        <v>250.6847781406591</v>
       </c>
       <c r="E13" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="F13" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="G13" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="H13" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="I13" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="J13" t="n">
         <v>50.85391747321462</v>
@@ -5229,22 +5229,22 @@
         <v>372.4359606620631</v>
       </c>
       <c r="T13" t="n">
-        <v>338.0347173090546</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="U13" t="n">
-        <v>50.85391747321462</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="V13" t="n">
-        <v>50.85391747321462</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="W13" t="n">
-        <v>50.85391747321462</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="X13" t="n">
-        <v>50.85391747321462</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.85391747321462</v>
+        <v>372.4359606620631</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1404.588947615663</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C14" t="n">
-        <v>1404.588947615663</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D14" t="n">
-        <v>1031.764982842887</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E14" t="n">
-        <v>1031.764982842887</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F14" t="n">
-        <v>617.6137921530569</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G14" t="n">
-        <v>201.8956147721802</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H14" t="n">
-        <v>201.8956147721802</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5302,28 +5302,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="V14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="W14" t="n">
-        <v>2180.160943518332</v>
+        <v>2445.124540858502</v>
       </c>
       <c r="X14" t="n">
-        <v>1798.130803039825</v>
+        <v>2063.094400379995</v>
       </c>
       <c r="Y14" t="n">
-        <v>1404.588947615663</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
         <v>50.85391747321462</v>
@@ -5457,31 +5457,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>115.9505818408994</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U16" t="n">
-        <v>115.9505818408994</v>
+        <v>311.589221914792</v>
       </c>
       <c r="V16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="W16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1089.307971265398</v>
+        <v>1683.141194979929</v>
       </c>
       <c r="C17" t="n">
-        <v>1089.307971265398</v>
+        <v>1346.604225309268</v>
       </c>
       <c r="D17" t="n">
-        <v>951.8185054153753</v>
+        <v>1346.604225309268</v>
       </c>
       <c r="E17" t="n">
         <v>951.8185054153753</v>
@@ -5539,28 +5539,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R17" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T17" t="n">
-        <v>2075.185256440287</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U17" t="n">
-        <v>1820.330784887476</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="V17" t="n">
-        <v>1483.351510783417</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="W17" t="n">
-        <v>1483.351510783417</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.351510783417</v>
+        <v>1683.141194979929</v>
       </c>
       <c r="Y17" t="n">
-        <v>1483.351510783417</v>
+        <v>1683.141194979929</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K18" t="n">
-        <v>251.697391494926</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L18" t="n">
-        <v>661.4480243753518</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.744201156452</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q18" t="n">
         <v>2542.69587366073</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C19" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D19" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E19" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F19" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G19" t="n">
         <v>50.85391747321462</v>
@@ -5703,22 +5703,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T19" t="n">
-        <v>634.4084381849335</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U19" t="n">
-        <v>634.4084381849335</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V19" t="n">
-        <v>634.4084381849335</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W19" t="n">
-        <v>634.4084381849335</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X19" t="n">
-        <v>403.1559740803093</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y19" t="n">
-        <v>403.1559740803093</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1510.26992814759</v>
+        <v>1166.699179228117</v>
       </c>
       <c r="C20" t="n">
-        <v>1232.614792829714</v>
+        <v>1166.699179228117</v>
       </c>
       <c r="D20" t="n">
-        <v>859.7908280569375</v>
+        <v>793.8752144553409</v>
       </c>
       <c r="E20" t="n">
-        <v>465.0051081630443</v>
+        <v>793.8752144553409</v>
       </c>
       <c r="F20" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="G20" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H20" t="n">
         <v>50.85391747321462</v>
@@ -5752,19 +5752,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5776,28 +5776,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R20" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2297.855323089771</v>
+        <v>2336.314714648805</v>
       </c>
       <c r="U20" t="n">
-        <v>2297.855323089771</v>
+        <v>2336.314714648805</v>
       </c>
       <c r="V20" t="n">
-        <v>2297.855323089771</v>
+        <v>2336.314714648805</v>
       </c>
       <c r="W20" t="n">
-        <v>2297.855323089771</v>
+        <v>2336.314714648805</v>
       </c>
       <c r="X20" t="n">
-        <v>2297.855323089771</v>
+        <v>1954.284574170299</v>
       </c>
       <c r="Y20" t="n">
-        <v>1904.31346766561</v>
+        <v>1560.742718746136</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K21" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L21" t="n">
-        <v>722.7650590219088</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M21" t="n">
-        <v>1259.061235803009</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N21" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547364</v>
       </c>
       <c r="O21" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.69587366073</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.0314493966757</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="C22" t="n">
-        <v>508.415479858356</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="D22" t="n">
-        <v>355.3435866861187</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="E22" t="n">
-        <v>203.3345724474375</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F22" t="n">
         <v>50.85391747321462</v>
@@ -5919,43 +5919,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N22" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O22" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U22" t="n">
-        <v>724.8700896544216</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="V22" t="n">
-        <v>724.8700896544216</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="W22" t="n">
-        <v>724.8700896544216</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="X22" t="n">
-        <v>724.8700896544216</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="Y22" t="n">
-        <v>724.8700896544216</v>
+        <v>202.8629317118958</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2298.687104866012</v>
+        <v>1711.197734743577</v>
       </c>
       <c r="C23" t="n">
-        <v>1916.753346198819</v>
+        <v>1711.197734743577</v>
       </c>
       <c r="D23" t="n">
-        <v>1543.929381426043</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="E23" t="n">
-        <v>1149.14366153215</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F23" t="n">
-        <v>734.9924708423198</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G23" t="n">
-        <v>320.0476353333914</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H23" t="n">
         <v>68.55268534786579</v>
@@ -5989,10 +5989,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J23" t="n">
-        <v>236.9749331805679</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6294415950433</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L23" t="n">
         <v>1148.797379660662</v>
@@ -6013,28 +6013,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R23" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S23" t="n">
-        <v>3248.994681093121</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U23" t="n">
-        <v>3029.70991848809</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="V23" t="n">
-        <v>2692.730644384031</v>
+        <v>2455.762805364483</v>
       </c>
       <c r="W23" t="n">
-        <v>2692.730644384031</v>
+        <v>2093.227875222084</v>
       </c>
       <c r="X23" t="n">
-        <v>2692.730644384031</v>
+        <v>1711.197734743577</v>
       </c>
       <c r="Y23" t="n">
-        <v>2692.730644384031</v>
+        <v>1711.197734743577</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G24" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H24" t="n">
         <v>115.581576881063</v>
@@ -6074,19 +6074,19 @@
         <v>396.1990541494053</v>
       </c>
       <c r="L24" t="n">
-        <v>894.0035074360995</v>
+        <v>416.7319830305476</v>
       </c>
       <c r="M24" t="n">
-        <v>1292.174384527</v>
+        <v>1055.782814995369</v>
       </c>
       <c r="N24" t="n">
-        <v>1961.533893466101</v>
+        <v>1316.308077135688</v>
       </c>
       <c r="O24" t="n">
-        <v>2498.358842583754</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P24" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q24" t="n">
         <v>2506.667490147568</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.55268534786579</v>
+        <v>220.561699586547</v>
       </c>
       <c r="C25" t="n">
-        <v>68.55268534786579</v>
+        <v>220.561699586547</v>
       </c>
       <c r="D25" t="n">
-        <v>68.55268534786579</v>
+        <v>220.561699586547</v>
       </c>
       <c r="E25" t="n">
         <v>68.55268534786579</v>
@@ -6174,25 +6174,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S25" t="n">
-        <v>827.3708054186045</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T25" t="n">
-        <v>769.5169196194706</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U25" t="n">
-        <v>769.5169196194706</v>
+        <v>960.0057239814951</v>
       </c>
       <c r="V25" t="n">
-        <v>769.5169196194706</v>
+        <v>960.0057239814951</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3605181368698</v>
+        <v>673.8493224988941</v>
       </c>
       <c r="X25" t="n">
-        <v>252.1080540322456</v>
+        <v>442.5968583942699</v>
       </c>
       <c r="Y25" t="n">
-        <v>252.1080540322456</v>
+        <v>220.561699586547</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1667.175275969684</v>
+        <v>1986.2085150595</v>
       </c>
       <c r="C26" t="n">
-        <v>1285.241517302491</v>
+        <v>1986.2085150595</v>
       </c>
       <c r="D26" t="n">
-        <v>912.4175525297148</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="E26" t="n">
-        <v>517.6318326358218</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F26" t="n">
-        <v>517.6318326358218</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G26" t="n">
-        <v>517.6318326358218</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H26" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I26" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J26" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K26" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L26" t="n">
         <v>1148.797379660662</v>
@@ -6241,7 +6241,7 @@
         <v>2322.568598257194</v>
       </c>
       <c r="O26" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P26" t="n">
         <v>3210.517730076022</v>
@@ -6259,19 +6259,19 @@
         <v>3266.819446276628</v>
       </c>
       <c r="U26" t="n">
-        <v>3012.026842073573</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="V26" t="n">
-        <v>3012.026842073573</v>
+        <v>3155.824050480188</v>
       </c>
       <c r="W26" t="n">
-        <v>2836.790811390372</v>
+        <v>3155.824050480188</v>
       </c>
       <c r="X26" t="n">
-        <v>2454.760670911865</v>
+        <v>2773.793910001681</v>
       </c>
       <c r="Y26" t="n">
-        <v>2061.218815487703</v>
+        <v>2380.252054577519</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G27" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H27" t="n">
         <v>115.581576881063</v>
@@ -6308,22 +6308,22 @@
         <v>186.2361291527469</v>
       </c>
       <c r="K27" t="n">
-        <v>513.8824979542865</v>
+        <v>362.3711518160384</v>
       </c>
       <c r="L27" t="n">
-        <v>1011.686951240981</v>
+        <v>860.1756051027327</v>
       </c>
       <c r="M27" t="n">
-        <v>1263.862203976741</v>
+        <v>1499.226437067554</v>
       </c>
       <c r="N27" t="n">
-        <v>1316.308077135687</v>
+        <v>1551.672310226501</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.133026253341</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P27" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q27" t="n">
         <v>2506.667490147568</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2464.167786673031</v>
+        <v>559.0491032426121</v>
       </c>
       <c r="C28" t="n">
-        <v>2464.167786673031</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="D28" t="n">
-        <v>2464.167786673031</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="E28" t="n">
-        <v>2464.167786673031</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="F28" t="n">
-        <v>2464.167786673031</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K28" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L28" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M28" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N28" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O28" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P28" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q28" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R28" t="n">
-        <v>3301.491564791619</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S28" t="n">
-        <v>3096.843204142099</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T28" t="n">
-        <v>2865.885877934821</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U28" t="n">
-        <v>2578.723999619373</v>
+        <v>1003.339776368569</v>
       </c>
       <c r="V28" t="n">
-        <v>2578.723999619373</v>
+        <v>742.6044719269919</v>
       </c>
       <c r="W28" t="n">
-        <v>2578.723999619373</v>
+        <v>742.6044719269919</v>
       </c>
       <c r="X28" t="n">
-        <v>2578.723999619373</v>
+        <v>742.6044719269919</v>
       </c>
       <c r="Y28" t="n">
-        <v>2464.167786673031</v>
+        <v>742.6044719269919</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1793.387424655043</v>
+        <v>2096.966995840274</v>
       </c>
       <c r="C29" t="n">
-        <v>1793.387424655043</v>
+        <v>1715.033237173081</v>
       </c>
       <c r="D29" t="n">
-        <v>1420.563459882266</v>
+        <v>1342.209272400305</v>
       </c>
       <c r="E29" t="n">
         <v>1025.777739988373</v>
@@ -6487,28 +6487,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R29" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="S29" t="n">
-        <v>3268.47362480417</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="T29" t="n">
-        <v>3268.47362480417</v>
+        <v>3190.524739604751</v>
       </c>
       <c r="U29" t="n">
-        <v>3268.47362480417</v>
+        <v>3190.524739604751</v>
       </c>
       <c r="V29" t="n">
-        <v>2931.494350700111</v>
+        <v>2853.545465500692</v>
       </c>
       <c r="W29" t="n">
-        <v>2568.959420557712</v>
+        <v>2491.010535358293</v>
       </c>
       <c r="X29" t="n">
-        <v>2186.929280079205</v>
+        <v>2491.010535358293</v>
       </c>
       <c r="Y29" t="n">
-        <v>1793.387424655043</v>
+        <v>2491.010535358293</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J30" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K30" t="n">
-        <v>68.55268534786579</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L30" t="n">
-        <v>566.35713863456</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M30" t="n">
-        <v>1205.407970599382</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N30" t="n">
-        <v>1316.308077135687</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O30" t="n">
-        <v>1853.133026253341</v>
+        <v>2240.008605482402</v>
       </c>
       <c r="P30" t="n">
         <v>2271.303257056754</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2771.98945020738</v>
+        <v>800.7667019635004</v>
       </c>
       <c r="C31" t="n">
-        <v>2771.98945020738</v>
+        <v>800.7667019635004</v>
       </c>
       <c r="D31" t="n">
-        <v>2618.917557035143</v>
+        <v>647.6948087912631</v>
       </c>
       <c r="E31" t="n">
-        <v>2618.917557035143</v>
+        <v>647.6948087912631</v>
       </c>
       <c r="F31" t="n">
-        <v>2618.917557035143</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="G31" t="n">
-        <v>2618.917557035143</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="H31" t="n">
-        <v>2464.167786673031</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I31" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J31" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K31" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L31" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M31" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N31" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O31" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P31" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q31" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R31" t="n">
-        <v>3301.491564791619</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S31" t="n">
-        <v>3301.491564791619</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T31" t="n">
-        <v>3301.491564791619</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U31" t="n">
-        <v>3301.491564791619</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V31" t="n">
-        <v>3040.756260350042</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="W31" t="n">
-        <v>3040.756260350042</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="X31" t="n">
-        <v>3040.756260350042</v>
+        <v>800.7667019635004</v>
       </c>
       <c r="Y31" t="n">
-        <v>2818.721101542319</v>
+        <v>800.7667019635004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1397.689706609483</v>
+        <v>2047.192154880486</v>
       </c>
       <c r="C32" t="n">
-        <v>1015.75594794229</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="D32" t="n">
-        <v>642.9319831695136</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E32" t="n">
-        <v>642.9319831695136</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F32" t="n">
-        <v>642.9319831695136</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G32" t="n">
-        <v>227.9871476605852</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H32" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I32" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J32" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K32" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950429</v>
       </c>
       <c r="L32" t="n">
         <v>1148.797379660662</v>
@@ -6724,28 +6724,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="S32" t="n">
-        <v>3266.819446276628</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="T32" t="n">
-        <v>3266.819446276628</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="U32" t="n">
-        <v>3266.819446276628</v>
+        <v>2994.202076890065</v>
       </c>
       <c r="V32" t="n">
-        <v>2929.84017217257</v>
+        <v>2994.202076890065</v>
       </c>
       <c r="W32" t="n">
-        <v>2567.305242030171</v>
+        <v>2994.202076890065</v>
       </c>
       <c r="X32" t="n">
-        <v>2185.275101551664</v>
+        <v>2612.171936411558</v>
       </c>
       <c r="Y32" t="n">
-        <v>1791.733246127502</v>
+        <v>2441.235694398506</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J33" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K33" t="n">
-        <v>68.55268534786579</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L33" t="n">
-        <v>566.35713863456</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M33" t="n">
-        <v>1205.407970599382</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N33" t="n">
-        <v>1874.767479538482</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P33" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q33" t="n">
         <v>2506.667490147568</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.55268534786579</v>
+        <v>617.2113332791206</v>
       </c>
       <c r="C34" t="n">
-        <v>68.55268534786579</v>
+        <v>447.5953637408008</v>
       </c>
       <c r="D34" t="n">
-        <v>68.55268534786579</v>
+        <v>447.5953637408008</v>
       </c>
       <c r="E34" t="n">
-        <v>68.55268534786579</v>
+        <v>349.5999122937508</v>
       </c>
       <c r="F34" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="G34" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="H34" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I34" t="n">
         <v>68.55268534786579</v>
@@ -6882,28 +6882,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R34" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S34" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T34" t="n">
-        <v>470.2707766096562</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1088982942077</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V34" t="n">
-        <v>68.55268534786579</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="W34" t="n">
-        <v>68.55268534786579</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="X34" t="n">
-        <v>68.55268534786579</v>
+        <v>800.7667019635004</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.55268534786579</v>
+        <v>800.7667019635004</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1272.389556075791</v>
+        <v>1554.623718338963</v>
       </c>
       <c r="C35" t="n">
-        <v>890.4557974085982</v>
+        <v>1554.623718338963</v>
       </c>
       <c r="D35" t="n">
-        <v>517.6318326358218</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="E35" t="n">
-        <v>517.6318326358218</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F35" t="n">
-        <v>517.6318326358218</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G35" t="n">
-        <v>517.6318326358218</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H35" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I35" t="n">
         <v>68.55268534786579</v>
@@ -6970,19 +6970,19 @@
         <v>3029.70991848809</v>
       </c>
       <c r="U35" t="n">
-        <v>2778.984365600537</v>
+        <v>3029.70991848809</v>
       </c>
       <c r="V35" t="n">
-        <v>2442.005091496479</v>
+        <v>2692.730644384031</v>
       </c>
       <c r="W35" t="n">
-        <v>2442.005091496479</v>
+        <v>2330.195714241632</v>
       </c>
       <c r="X35" t="n">
-        <v>2059.974951017972</v>
+        <v>1948.165573763126</v>
       </c>
       <c r="Y35" t="n">
-        <v>1666.43309559381</v>
+        <v>1554.623718338963</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1840.868797869529</v>
+        <v>919.9020206238073</v>
       </c>
       <c r="C36" t="n">
-        <v>1679.165125110484</v>
+        <v>758.198347864762</v>
       </c>
       <c r="D36" t="n">
-        <v>1540.326488100696</v>
+        <v>619.3597108549741</v>
       </c>
       <c r="E36" t="n">
-        <v>1393.298478157567</v>
+        <v>472.3317009118452</v>
       </c>
       <c r="F36" t="n">
-        <v>1258.604680107441</v>
+        <v>337.6379028617196</v>
       </c>
       <c r="G36" t="n">
-        <v>1130.496380612394</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H36" t="n">
-        <v>1036.548354126785</v>
+        <v>115.581576881063</v>
       </c>
       <c r="I36" t="n">
-        <v>989.5194625935875</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J36" t="n">
-        <v>989.5194625935875</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K36" t="n">
-        <v>989.5194625935875</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="L36" t="n">
-        <v>1487.323915880282</v>
+        <v>684.0405824394411</v>
       </c>
       <c r="M36" t="n">
-        <v>2074.816150351459</v>
+        <v>1323.091414404263</v>
       </c>
       <c r="N36" t="n">
-        <v>2744.175659290559</v>
+        <v>1375.537287563209</v>
       </c>
       <c r="O36" t="n">
-        <v>2774.099803499062</v>
+        <v>1912.362236680863</v>
       </c>
       <c r="P36" t="n">
-        <v>3192.270034302476</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q36" t="n">
-        <v>3427.63426739329</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="R36" t="n">
-        <v>3406.356831902701</v>
+        <v>2485.39005465698</v>
       </c>
       <c r="S36" t="n">
-        <v>3265.077296844677</v>
+        <v>2344.110519598956</v>
       </c>
       <c r="T36" t="n">
-        <v>3078.892036180194</v>
+        <v>2157.925258934473</v>
       </c>
       <c r="U36" t="n">
-        <v>2860.438046441772</v>
+        <v>1939.471269196051</v>
       </c>
       <c r="V36" t="n">
-        <v>2632.042423890106</v>
+        <v>1711.075646644385</v>
       </c>
       <c r="W36" t="n">
-        <v>2390.726555123416</v>
+        <v>1469.759777877695</v>
       </c>
       <c r="X36" t="n">
-        <v>2192.809567001211</v>
+        <v>1271.842789755489</v>
       </c>
       <c r="Y36" t="n">
-        <v>2000.28824065079</v>
+        <v>1079.321463405068</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2578.723999619373</v>
+        <v>135.6238764439009</v>
       </c>
       <c r="C37" t="n">
-        <v>2578.723999619373</v>
+        <v>135.6238764439009</v>
       </c>
       <c r="D37" t="n">
-        <v>2578.723999619373</v>
+        <v>135.6238764439009</v>
       </c>
       <c r="E37" t="n">
-        <v>2578.723999619373</v>
+        <v>135.6238764439009</v>
       </c>
       <c r="F37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K37" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L37" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M37" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N37" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O37" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P37" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q37" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R37" t="n">
-        <v>3301.491564791619</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S37" t="n">
-        <v>3096.843204142099</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T37" t="n">
-        <v>2865.885877934821</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U37" t="n">
-        <v>2578.723999619373</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V37" t="n">
-        <v>2578.723999619373</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="W37" t="n">
-        <v>2578.723999619373</v>
+        <v>541.2144039360037</v>
       </c>
       <c r="X37" t="n">
-        <v>2578.723999619373</v>
+        <v>541.2144039360037</v>
       </c>
       <c r="Y37" t="n">
-        <v>2578.723999619373</v>
+        <v>319.1792451282807</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1622.86643244364</v>
+        <v>2081.326466659514</v>
       </c>
       <c r="C38" t="n">
-        <v>1240.932673776447</v>
+        <v>1699.392707992321</v>
       </c>
       <c r="D38" t="n">
-        <v>1240.932673776447</v>
+        <v>1326.568743219545</v>
       </c>
       <c r="E38" t="n">
-        <v>1240.932673776447</v>
+        <v>931.7830233256514</v>
       </c>
       <c r="F38" t="n">
-        <v>826.7814830866173</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="G38" t="n">
         <v>517.6318326358218</v>
@@ -7174,10 +7174,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J38" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K38" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L38" t="n">
         <v>1148.797379660662</v>
@@ -7204,22 +7204,22 @@
         <v>3409.809502209782</v>
       </c>
       <c r="T38" t="n">
-        <v>3409.809502209782</v>
+        <v>3219.433392704581</v>
       </c>
       <c r="U38" t="n">
-        <v>3155.016898006726</v>
+        <v>3219.433392704581</v>
       </c>
       <c r="V38" t="n">
-        <v>3155.016898006726</v>
+        <v>3219.433392704581</v>
       </c>
       <c r="W38" t="n">
-        <v>2792.481967864328</v>
+        <v>2856.898462562182</v>
       </c>
       <c r="X38" t="n">
-        <v>2410.451827385821</v>
+        <v>2474.868322083676</v>
       </c>
       <c r="Y38" t="n">
-        <v>2016.909971961659</v>
+        <v>2081.326466659514</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J39" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K39" t="n">
-        <v>396.1990541494053</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L39" t="n">
-        <v>416.7319830305476</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M39" t="n">
-        <v>1055.782814995369</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N39" t="n">
-        <v>1316.308077135687</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O39" t="n">
-        <v>1853.133026253341</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P39" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q39" t="n">
         <v>2506.667490147568</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.55268534786579</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="C40" t="n">
-        <v>68.55268534786579</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="D40" t="n">
-        <v>68.55268534786579</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="E40" t="n">
-        <v>68.55268534786579</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="F40" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="G40" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H40" t="n">
         <v>68.55268534786579</v>
@@ -7365,19 +7365,19 @@
         <v>827.3708054186045</v>
       </c>
       <c r="U40" t="n">
-        <v>827.3708054186045</v>
+        <v>661.9395121668018</v>
       </c>
       <c r="V40" t="n">
-        <v>566.635500977027</v>
+        <v>661.9395121668018</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4790994944262</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="X40" t="n">
-        <v>280.4790994944262</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.55268534786579</v>
+        <v>375.7831106842009</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1299.831114135908</v>
+        <v>2004.896572922147</v>
       </c>
       <c r="C41" t="n">
-        <v>1299.831114135908</v>
+        <v>1622.962814254954</v>
       </c>
       <c r="D41" t="n">
-        <v>927.0071493631317</v>
+        <v>1250.138849482177</v>
       </c>
       <c r="E41" t="n">
-        <v>927.0071493631317</v>
+        <v>931.7830233256514</v>
       </c>
       <c r="F41" t="n">
-        <v>927.0071493631317</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="G41" t="n">
         <v>517.6318326358218</v>
@@ -7411,22 +7411,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J41" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K41" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L41" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M41" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N41" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O41" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P41" t="n">
         <v>3210.517730076022</v>
@@ -7438,25 +7438,25 @@
         <v>3409.809502209782</v>
       </c>
       <c r="S41" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.70991848809</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="U41" t="n">
-        <v>2774.917314285035</v>
+        <v>3155.016898006726</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.938040180976</v>
+        <v>3155.016898006726</v>
       </c>
       <c r="W41" t="n">
-        <v>2075.403110038577</v>
+        <v>2792.481967864328</v>
       </c>
       <c r="X41" t="n">
-        <v>1693.37296956007</v>
+        <v>2792.481967864328</v>
       </c>
       <c r="Y41" t="n">
-        <v>1299.831114135908</v>
+        <v>2398.940112440166</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H42" t="n">
         <v>115.581576881063</v>
@@ -7493,22 +7493,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K42" t="n">
-        <v>396.1990541494053</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L42" t="n">
-        <v>894.0035074360995</v>
+        <v>566.35713863456</v>
       </c>
       <c r="M42" t="n">
-        <v>1533.054339400921</v>
+        <v>1205.407970599382</v>
       </c>
       <c r="N42" t="n">
-        <v>1585.500212559868</v>
+        <v>1874.767479538482</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.133026253341</v>
+        <v>2411.592428656135</v>
       </c>
       <c r="P42" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q42" t="n">
         <v>2506.667490147568</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>569.8093757562227</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="C43" t="n">
-        <v>569.8093757562227</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="D43" t="n">
-        <v>416.7374825839854</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="E43" t="n">
-        <v>264.7284683453042</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="F43" t="n">
-        <v>112.2478133710813</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G43" t="n">
-        <v>112.2478133710813</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H43" t="n">
-        <v>112.2478133710813</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I43" t="n">
         <v>68.55268534786579</v>
@@ -7605,16 +7605,16 @@
         <v>801.0618398608469</v>
       </c>
       <c r="V43" t="n">
-        <v>801.0618398608469</v>
+        <v>766.2180628741276</v>
       </c>
       <c r="W43" t="n">
-        <v>801.0618398608469</v>
+        <v>766.2180628741276</v>
       </c>
       <c r="X43" t="n">
-        <v>569.8093757562227</v>
+        <v>766.2180628741276</v>
       </c>
       <c r="Y43" t="n">
-        <v>569.8093757562227</v>
+        <v>544.1829040664046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1761.169992632406</v>
+        <v>1407.711498655566</v>
       </c>
       <c r="C44" t="n">
-        <v>1379.236233965213</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="D44" t="n">
-        <v>1006.412269192437</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="E44" t="n">
-        <v>611.6265492985435</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="F44" t="n">
         <v>611.6265492985435</v>
@@ -7648,22 +7648,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K44" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L44" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M44" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N44" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O44" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P44" t="n">
         <v>3210.517730076022</v>
@@ -7672,28 +7672,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R44" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S44" t="n">
-        <v>3248.994681093121</v>
+        <v>3276.841238322711</v>
       </c>
       <c r="T44" t="n">
-        <v>3248.994681093121</v>
+        <v>3276.841238322711</v>
       </c>
       <c r="U44" t="n">
-        <v>2994.202076890065</v>
+        <v>3276.841238322711</v>
       </c>
       <c r="V44" t="n">
-        <v>2657.222802786006</v>
+        <v>2939.861964218653</v>
       </c>
       <c r="W44" t="n">
-        <v>2294.687872643608</v>
+        <v>2577.327034076254</v>
       </c>
       <c r="X44" t="n">
-        <v>1912.657732165101</v>
+        <v>2195.296893597747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1761.169992632406</v>
+        <v>1801.755038173585</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J45" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K45" t="n">
-        <v>396.1990541494053</v>
+        <v>513.8824979542864</v>
       </c>
       <c r="L45" t="n">
-        <v>894.0035074360995</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M45" t="n">
-        <v>1533.054339400921</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N45" t="n">
-        <v>1585.500212559868</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.325161677521</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P45" t="n">
         <v>2271.303257056754</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>331.3500696938663</v>
+        <v>221.6245785201031</v>
       </c>
       <c r="C46" t="n">
-        <v>221.0333403220887</v>
+        <v>221.6245785201031</v>
       </c>
       <c r="D46" t="n">
-        <v>221.0333403220887</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E46" t="n">
-        <v>221.0333403220887</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F46" t="n">
         <v>68.55268534786579</v>
@@ -7833,25 +7833,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S46" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T46" t="n">
-        <v>801.0618398608469</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U46" t="n">
-        <v>801.0618398608469</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V46" t="n">
-        <v>801.0618398608469</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="W46" t="n">
-        <v>514.9054383782461</v>
+        <v>627.2151060122059</v>
       </c>
       <c r="X46" t="n">
-        <v>514.9054383782461</v>
+        <v>627.2151060122059</v>
       </c>
       <c r="Y46" t="n">
-        <v>514.9054383782461</v>
+        <v>405.1799472044829</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M3" t="n">
-        <v>387.98835840707</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>199.7153379065116</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8312,10 +8312,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,10 +8531,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8543,7 +8543,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>173.9082232290045</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8552,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>116.5350238645392</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8783,13 +8783,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>184.4622374967491</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9242,16 +9242,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>281.8684094834663</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120004</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9263,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9491,16 +9491,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836198</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>352.0652005990326</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305564</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1034971437667</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>210.1812009912844</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9956,13 +9956,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>190.7630443403442</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>214.6331695123111</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992308</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10202,13 +10202,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>59.04468017915036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>23.21818586922982</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10427,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10439,16 +10439,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>185.6622581789597</v>
+        <v>121.2376016970597</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>12.84888003398906</v>
@@ -10673,16 +10673,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>553.3371914672787</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>354.1741139515931</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10901,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>210.1812009912842</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>358.9792512837402</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305564</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>12.84888003398909</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11150,16 +11150,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>240.1097671565356</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>87.64284235113006</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992308</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11311,7 +11311,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>495.040235641569</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>121.2376016970599</v>
       </c>
       <c r="P45" t="n">
-        <v>142.0903513287055</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>107.0938833227933</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>145.7965255910434</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>31.00750354432495</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -23439,7 +23439,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>196.057885932089</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
-        <v>6.832577724458105</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
@@ -23557,7 +23557,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>328.0531308985732</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
-        <v>73.16295278803752</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>105.2760496268156</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>44.94282110656707</v>
       </c>
       <c r="D17" t="n">
-        <v>232.9811539335262</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23904,7 +23904,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H19" t="n">
         <v>156.2556384040709</v>
@@ -23943,19 +23943,19 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T19" t="n">
-        <v>140.5580818967742</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>158.4557702430231</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>103.2358371158229</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>156.363858050434</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>16.12601856118349</v>
       </c>
       <c r="U20" t="n">
         <v>252.305926837283</v>
@@ -24034,7 +24034,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.3495611423676</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>167.0592210434877</v>
@@ -24150,7 +24150,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
@@ -24183,10 +24183,10 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>25.64985687154257</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>272.2606725127634</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>68.76061717207426</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>126.8477381573318</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24372,7 +24372,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -24387,7 +24387,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J25" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047421</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T25" t="n">
-        <v>171.3724060040624</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
-        <v>284.290259532294</v>
+        <v>212.9969518665308</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>17.64651753167263</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>223.7240395245421</v>
       </c>
       <c r="W26" t="n">
-        <v>185.4259104646059</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -24612,10 +24612,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.2022726584912</v>
@@ -24624,7 +24624,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J28" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047421</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>255.8976637297343</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24669,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.4041564027672</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>77.57064560714218</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.637636742265755</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T29" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>252.2446781610247</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.4554801759467</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24849,16 +24849,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>24.80412057433568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>23.0634383904742</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S31" t="n">
         <v>202.601877043025</v>
@@ -24897,16 +24897,16 @@
         <v>284.290259532294</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.7482381254842</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>220.379557276998</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>53.47342716371483</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.7157954483816</v>
@@ -25095,7 +25095,7 @@
         <v>153.2022726584912</v>
       </c>
       <c r="I34" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>23.0634383904742</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V34" t="n">
-        <v>144.7173005802832</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>219.8148072196457</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>36.43108605837693</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>4.026380802347688</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -25323,7 +25323,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>37.54519760760215</v>
+        <v>84.55536923940588</v>
       </c>
       <c r="G37" t="n">
         <v>166.7157954483816</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>104.7372332075515</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>159.2066729054946</v>
       </c>
       <c r="T38" t="n">
-        <v>217.0919149789806</v>
+        <v>28.61956656883211</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25560,13 +25560,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>127.2809062519456</v>
@@ -25605,10 +25605,10 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U40" t="n">
-        <v>284.290259532294</v>
+        <v>120.5132792130093</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>10.0076572145509</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>75.66559479999341</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.513823593802272</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>84.02272950896216</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J43" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047421</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>284.290259532294</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>223.6326121803094</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.921574125622271</v>
       </c>
       <c r="T44" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>239.6335747325522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>58.70624776487666</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.7157954483816</v>
@@ -26073,10 +26073,10 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S46" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U46" t="n">
         <v>284.290259532294</v>
@@ -26085,13 +26085,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>85.14069505544023</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>541498.7791365221</v>
+        <v>541498.7791365223</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630835.7579148054</v>
+        <v>630835.7579148057</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>630835.7579148057</v>
+        <v>630835.7579148053</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630835.7579148054</v>
+        <v>630835.7579148058</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630835.7579148056</v>
+        <v>630835.7579148057</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630835.7579148058</v>
+        <v>630835.7579148054</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>537336.8423459274</v>
       </c>
       <c r="C2" t="n">
+        <v>537336.8423459275</v>
+      </c>
+      <c r="D2" t="n">
         <v>537336.8423459273</v>
-      </c>
-      <c r="D2" t="n">
-        <v>537336.8423459274</v>
       </c>
       <c r="E2" t="n">
         <v>353444.0843231675</v>
       </c>
       <c r="F2" t="n">
-        <v>353444.0843231674</v>
+        <v>353444.0843231673</v>
       </c>
       <c r="G2" t="n">
-        <v>353444.0843231674</v>
+        <v>353444.0843231675</v>
       </c>
       <c r="H2" t="n">
-        <v>353444.0843231674</v>
+        <v>353444.0843231675</v>
       </c>
       <c r="I2" t="n">
-        <v>413487.1047792182</v>
+        <v>413487.1047792183</v>
       </c>
       <c r="J2" t="n">
-        <v>413487.1047792184</v>
+        <v>413487.1047792183</v>
       </c>
       <c r="K2" t="n">
         <v>413487.1047792184</v>
       </c>
       <c r="L2" t="n">
+        <v>413487.1047792182</v>
+      </c>
+      <c r="M2" t="n">
         <v>413487.1047792183</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>413487.1047792183</v>
+      </c>
+      <c r="O2" t="n">
         <v>413487.1047792184</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>413487.1047792184</v>
-      </c>
-      <c r="O2" t="n">
-        <v>413487.1047792183</v>
-      </c>
-      <c r="P2" t="n">
-        <v>413487.1047792182</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>202188.2862928656</v>
+        <v>202188.2862928655</v>
       </c>
       <c r="J3" t="n">
         <v>137442.4307917771</v>
@@ -26441,7 +26441,7 @@
         <v>11201.89189323803</v>
       </c>
       <c r="J4" t="n">
-        <v>11201.89189323803</v>
+        <v>11201.89189323802</v>
       </c>
       <c r="K4" t="n">
         <v>11201.89189323803</v>
@@ -26453,13 +26453,13 @@
         <v>11201.89189323803</v>
       </c>
       <c r="N4" t="n">
-        <v>11201.89189323802</v>
+        <v>11201.89189323803</v>
       </c>
       <c r="O4" t="n">
-        <v>11201.89189323802</v>
+        <v>11201.89189323803</v>
       </c>
       <c r="P4" t="n">
-        <v>11201.89189323802</v>
+        <v>11201.89189323803</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>98750.18977743026</v>
       </c>
       <c r="C6" t="n">
-        <v>274791.3744949575</v>
+        <v>274791.3744949577</v>
       </c>
       <c r="D6" t="n">
-        <v>274791.3744949577</v>
+        <v>274791.3744949576</v>
       </c>
       <c r="E6" t="n">
-        <v>191620.239670719</v>
+        <v>185052.6411699061</v>
       </c>
       <c r="F6" t="n">
-        <v>300906.10632002</v>
+        <v>294338.5078192072</v>
       </c>
       <c r="G6" t="n">
-        <v>300906.10632002</v>
+        <v>294338.5078192073</v>
       </c>
       <c r="H6" t="n">
-        <v>300906.10632002</v>
+        <v>294338.5078192073</v>
       </c>
       <c r="I6" t="n">
-        <v>141773.9573063286</v>
+        <v>137350.7523932321</v>
       </c>
       <c r="J6" t="n">
-        <v>206519.8128074174</v>
+        <v>202096.6078943205</v>
       </c>
       <c r="K6" t="n">
-        <v>343962.2435991946</v>
+        <v>339539.0386860978</v>
       </c>
       <c r="L6" t="n">
-        <v>343962.2435991945</v>
+        <v>339539.0386860976</v>
       </c>
       <c r="M6" t="n">
-        <v>316457.406942298</v>
+        <v>312034.2020292012</v>
       </c>
       <c r="N6" t="n">
-        <v>343962.2435991945</v>
+        <v>339539.0386860977</v>
       </c>
       <c r="O6" t="n">
-        <v>343962.2435991945</v>
+        <v>339539.0386860978</v>
       </c>
       <c r="P6" t="n">
-        <v>343962.2435991943</v>
+        <v>339539.0386860978</v>
       </c>
     </row>
   </sheetData>
@@ -26749,19 +26749,19 @@
         <v>95.01032947988872</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="G3" t="n">
         <v>95.01032947988871</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="I3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205455</v>
       </c>
       <c r="J3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205455</v>
       </c>
       <c r="K3" t="n">
         <v>285.4554322205456</v>
@@ -26776,7 +26776,7 @@
         <v>285.4554322205456</v>
       </c>
       <c r="O3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205455</v>
       </c>
       <c r="P3" t="n">
         <v>285.4554322205455</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>190.4451027406569</v>
+        <v>190.4451027406567</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>128.0878337591854</v>
       </c>
       <c r="D2" t="n">
-        <v>43.87163827606969</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27438,16 +27438,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.51971278911695</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27557,10 +27557,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>227.280300689829</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27605,7 +27605,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>214.7548186629413</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.9010747468578</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>38.62023908388457</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>101.3096598180112</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>43.41301920964801</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,10 +27751,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>96.01933318568487</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27794,10 +27794,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>101.8597073339676</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27858,13 +27858,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>336.1836859286326</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>123.4173976311006</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27934,13 +27934,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>72.91608175895186</v>
+        <v>78.46606061198057</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>199.9995129451453</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.28980996217103</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -31992,7 +31992,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290089</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I14" t="n">
         <v>14.72516875285793</v>
@@ -32001,37 +32001,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P14" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T14" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J15" t="n">
         <v>19.30771233326682</v>
@@ -32083,10 +32083,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869709</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N15" t="n">
         <v>53.1511087530936</v>
@@ -32107,7 +32107,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U15" t="n">
         <v>0.01344485794526728</v>
@@ -32162,10 +32162,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N16" t="n">
         <v>26.21817829729455</v>
@@ -32177,19 +32177,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T20" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N21" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,16 +32706,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I23" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596013</v>
       </c>
       <c r="J23" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353178</v>
       </c>
       <c r="K23" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L23" t="n">
-        <v>181.0934999804774</v>
+        <v>181.0934999804773</v>
       </c>
       <c r="M23" t="n">
         <v>201.5014117101341</v>
@@ -32727,22 +32727,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P23" t="n">
-        <v>165.0204943622301</v>
+        <v>165.02049436223</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.9235188189204</v>
+        <v>123.9235188189203</v>
       </c>
       <c r="R23" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743254</v>
       </c>
       <c r="S23" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T23" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318342</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517394</v>
       </c>
       <c r="H24" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015484</v>
       </c>
       <c r="I24" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897436</v>
       </c>
       <c r="J24" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K24" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267759</v>
       </c>
       <c r="L24" t="n">
         <v>133.3157657743218</v>
@@ -32809,19 +32809,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496941</v>
       </c>
       <c r="R24" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032117</v>
       </c>
       <c r="S24" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T24" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836615</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.04039463663498287</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468853</v>
       </c>
       <c r="H25" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027765</v>
       </c>
       <c r="I25" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J25" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949479</v>
       </c>
       <c r="K25" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882902</v>
       </c>
       <c r="L25" t="n">
-        <v>76.53013341860331</v>
+        <v>76.5301334186033</v>
       </c>
       <c r="M25" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342402</v>
       </c>
       <c r="N25" t="n">
-        <v>78.77166050112207</v>
+        <v>78.77166050112206</v>
       </c>
       <c r="O25" t="n">
-        <v>72.75837803549251</v>
+        <v>72.7583780354925</v>
       </c>
       <c r="P25" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757599</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530237</v>
       </c>
       <c r="R25" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611176</v>
       </c>
       <c r="S25" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324352</v>
       </c>
       <c r="T25" t="n">
         <v>2.199410707273055</v>
@@ -32943,16 +32943,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I26" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596013</v>
       </c>
       <c r="J26" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353178</v>
       </c>
       <c r="K26" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L26" t="n">
-        <v>181.0934999804774</v>
+        <v>181.0934999804773</v>
       </c>
       <c r="M26" t="n">
         <v>201.5014117101341</v>
@@ -32964,22 +32964,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P26" t="n">
-        <v>165.0204943622301</v>
+        <v>165.02049436223</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.9235188189204</v>
+        <v>123.9235188189203</v>
       </c>
       <c r="R26" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743254</v>
       </c>
       <c r="S26" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T26" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318342</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517394</v>
       </c>
       <c r="H27" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015484</v>
       </c>
       <c r="I27" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897436</v>
       </c>
       <c r="J27" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K27" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267759</v>
       </c>
       <c r="L27" t="n">
         <v>133.3157657743218</v>
@@ -33046,19 +33046,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496941</v>
       </c>
       <c r="R27" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032117</v>
       </c>
       <c r="S27" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T27" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836615</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.04039463663498287</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468853</v>
       </c>
       <c r="H28" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027765</v>
       </c>
       <c r="I28" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J28" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949479</v>
       </c>
       <c r="K28" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882902</v>
       </c>
       <c r="L28" t="n">
-        <v>76.53013341860331</v>
+        <v>76.5301334186033</v>
       </c>
       <c r="M28" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342402</v>
       </c>
       <c r="N28" t="n">
-        <v>78.77166050112207</v>
+        <v>78.77166050112206</v>
       </c>
       <c r="O28" t="n">
-        <v>72.75837803549251</v>
+        <v>72.7583780354925</v>
       </c>
       <c r="P28" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757599</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530237</v>
       </c>
       <c r="R28" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611176</v>
       </c>
       <c r="S28" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324352</v>
       </c>
       <c r="T28" t="n">
         <v>2.199410707273055</v>
@@ -34128,16 +34128,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I41" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596013</v>
       </c>
       <c r="J41" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353178</v>
       </c>
       <c r="K41" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L41" t="n">
-        <v>181.0934999804774</v>
+        <v>181.0934999804773</v>
       </c>
       <c r="M41" t="n">
         <v>201.5014117101341</v>
@@ -34149,22 +34149,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P41" t="n">
-        <v>165.0204943622301</v>
+        <v>165.02049436223</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.9235188189204</v>
+        <v>123.9235188189203</v>
       </c>
       <c r="R41" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743254</v>
       </c>
       <c r="S41" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T41" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318342</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517394</v>
       </c>
       <c r="H42" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015484</v>
       </c>
       <c r="I42" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897436</v>
       </c>
       <c r="J42" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K42" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267759</v>
       </c>
       <c r="L42" t="n">
         <v>133.3157657743218</v>
@@ -34231,19 +34231,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496941</v>
       </c>
       <c r="R42" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032117</v>
       </c>
       <c r="S42" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T42" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836615</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.04039463663498287</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468853</v>
       </c>
       <c r="H43" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027765</v>
       </c>
       <c r="I43" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J43" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949479</v>
       </c>
       <c r="K43" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882902</v>
       </c>
       <c r="L43" t="n">
-        <v>76.53013341860331</v>
+        <v>76.5301334186033</v>
       </c>
       <c r="M43" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342402</v>
       </c>
       <c r="N43" t="n">
-        <v>78.77166050112207</v>
+        <v>78.77166050112206</v>
       </c>
       <c r="O43" t="n">
-        <v>72.75837803549251</v>
+        <v>72.7583780354925</v>
       </c>
       <c r="P43" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757599</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530237</v>
       </c>
       <c r="R43" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611176</v>
       </c>
       <c r="S43" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324352</v>
       </c>
       <c r="T43" t="n">
         <v>2.199410707273055</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M3" t="n">
-        <v>272.5044558454301</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>87.71916873984493</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35032,10 +35032,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35263,7 +35263,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>67.19308216129619</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35272,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>2.799832419646698</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35503,13 +35503,13 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>117.2256694827656</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K18" t="n">
-        <v>202.8721959815267</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323168998</v>
       </c>
       <c r="N18" t="n">
         <v>569.5810543320048</v>
@@ -35983,7 +35983,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K20" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L20" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M20" t="n">
         <v>464.2785454406509</v>
@@ -36135,13 +36135,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P20" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8085946144125</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36211,16 +36211,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690051</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P21" t="n">
-        <v>282.235142922959</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L22" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M22" t="n">
         <v>146.0421320399604</v>
@@ -36293,10 +36293,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O22" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>330.9559280823631</v>
       </c>
       <c r="L24" t="n">
-        <v>502.8327810976709</v>
+        <v>20.74033220317398</v>
       </c>
       <c r="M24" t="n">
-        <v>402.1928051423242</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N24" t="n">
-        <v>676.1207161001012</v>
+        <v>263.156830444766</v>
       </c>
       <c r="O24" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P24" t="n">
-        <v>8.392573296782274</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.951802332454527</v>
+        <v>4.95180233245452</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>118.8721654594759</v>
       </c>
       <c r="K27" t="n">
-        <v>330.9559280823631</v>
+        <v>177.9141643063551</v>
       </c>
       <c r="L27" t="n">
         <v>502.8327810976709</v>
       </c>
       <c r="M27" t="n">
-        <v>254.7224775108685</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N27" t="n">
-        <v>52.97562945348162</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O27" t="n">
         <v>542.2474233511649</v>
@@ -36694,7 +36694,7 @@
         <v>422.3941725287006</v>
       </c>
       <c r="Q27" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.951802332454527</v>
+        <v>4.95180233245452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L30" t="n">
         <v>502.8327810976709</v>
@@ -36922,13 +36922,13 @@
         <v>645.5058908735573</v>
       </c>
       <c r="N30" t="n">
-        <v>112.020309632632</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O30" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P30" t="n">
-        <v>422.3941725287006</v>
+        <v>31.61075916601209</v>
       </c>
       <c r="Q30" t="n">
         <v>237.7416495866808</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L33" t="n">
         <v>502.8327810976709</v>
@@ -37159,16 +37159,16 @@
         <v>645.5058908735573</v>
       </c>
       <c r="N33" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O33" t="n">
-        <v>215.8886664703763</v>
+        <v>151.4640099884762</v>
       </c>
       <c r="P33" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>502.8327810976709</v>
       </c>
       <c r="M36" t="n">
-        <v>593.4264994658361</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N36" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O36" t="n">
-        <v>30.22640829141659</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P36" t="n">
-        <v>422.3941725287006</v>
+        <v>362.5666872483754</v>
       </c>
       <c r="Q36" t="n">
         <v>237.7416495866808</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K39" t="n">
         <v>330.9559280823631</v>
       </c>
       <c r="L39" t="n">
-        <v>20.74033220317401</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M39" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N39" t="n">
-        <v>263.1568304447658</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O39" t="n">
-        <v>542.2474233511649</v>
+        <v>389.2056595751568</v>
       </c>
       <c r="P39" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q39" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>330.9559280823631</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>502.8327810976709</v>
@@ -37870,16 +37870,16 @@
         <v>645.5058908735573</v>
       </c>
       <c r="N42" t="n">
-        <v>52.97562945348162</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O42" t="n">
-        <v>270.3361754479521</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P42" t="n">
-        <v>422.3941725287006</v>
+        <v>96.03541564791232</v>
       </c>
       <c r="Q42" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.951802332454527</v>
+        <v>4.95180233245452</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>586.9148027781935</v>
       </c>
       <c r="O44" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P44" t="n">
         <v>395.482005934001</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K45" t="n">
         <v>330.9559280823631</v>
@@ -38110,10 +38110,10 @@
         <v>52.97562945348159</v>
       </c>
       <c r="O45" t="n">
-        <v>542.2474233511649</v>
+        <v>151.4640099884765</v>
       </c>
       <c r="P45" t="n">
-        <v>150.4829246254877</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q45" t="n">
         <v>237.7416495866808</v>
